--- a/Data/questions_excluded_from_scores_calculation.xlsx
+++ b/Data/questions_excluded_from_scores_calculation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>question_name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>mfq_short</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>mast</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -438,6 +444,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/questions_excluded_from_scores_calculation.xlsx
+++ b/Data/questions_excluded_from_scores_calculation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>question_name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>mfq_short</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>mast</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -438,6 +444,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/questions_excluded_from_scores_calculation.xlsx
+++ b/Data/questions_excluded_from_scores_calculation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>question_name</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>mast</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -387,6 +390,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
